--- a/Documents/project 1 risk assessment.xlsx
+++ b/Documents/project 1 risk assessment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/998ab5f68d12beac/Documents/jobs/QA/project 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{F37CA69F-AEA3-4B43-9039-F75E6031DA9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0D1EA864-A099-45E1-BE29-390D05D3DA1A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{F37CA69F-AEA3-4B43-9039-F75E6031DA9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00B826E7-BFF2-438E-9739-6CB966D95A7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A057325D-A82B-4E8E-AB16-DFFE8AEBA76C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -90,15 +90,6 @@
     <t>User and David</t>
   </si>
   <si>
-    <t>user sends a message to inform of the problem and david responds to the problem and adds the data</t>
-  </si>
-  <si>
-    <t>user sends a message to inform of the problem and david responds to the problem and returns the data to orginal state</t>
-  </si>
-  <si>
-    <t>user sends a message to inform of the problem and david responds to the problem and puts website back up</t>
-  </si>
-  <si>
     <t>user sends a message to inform of the problem and david responds to the problem and adds the data correctly</t>
   </si>
   <si>
@@ -126,27 +117,15 @@
     <t xml:space="preserve">The website being slow as multiple people try to use it </t>
   </si>
   <si>
-    <t>Data being stolen or changed due to Database details realeased</t>
-  </si>
-  <si>
     <t>Data being stolen or changed due to secret key being released</t>
   </si>
   <si>
-    <t xml:space="preserve">Some one using Jekins to change or steal data </t>
-  </si>
-  <si>
     <t xml:space="preserve">Slow or down website </t>
   </si>
   <si>
     <t>Data stolen or changed</t>
   </si>
   <si>
-    <t xml:space="preserve">using enviroment variables and setting secret text in Jenkins </t>
-  </si>
-  <si>
-    <t>assessing the impact and changing username and passwords as well as chnging the position of the database</t>
-  </si>
-  <si>
     <t xml:space="preserve">use Gunicorn to set up multiple bots to hand a large amount of people </t>
   </si>
   <si>
@@ -165,18 +144,12 @@
     <t>using form.hidden_tag() and SECRET_KEY from WTForms</t>
   </si>
   <si>
-    <t>adding more multi-factor authenication</t>
-  </si>
-  <si>
     <t>VM for sever goes down</t>
   </si>
   <si>
     <t>VM for database goes down</t>
   </si>
   <si>
-    <t>VM for jenkins goes down</t>
-  </si>
-  <si>
     <t>loss of service and data</t>
   </si>
   <si>
@@ -195,13 +168,43 @@
     <t xml:space="preserve">create a backup VM  with everything needed installed </t>
   </si>
   <si>
-    <t xml:space="preserve">Take regular backsups of the database </t>
-  </si>
-  <si>
     <t xml:space="preserve">script saved in the code pushed to the repository </t>
   </si>
   <si>
-    <t>set up a backup jenkins server with run code added</t>
+    <t>Data being stolen or changed due to Database details released</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Someone using Jenkins to change or steal data </t>
+  </si>
+  <si>
+    <t>VM for Jenkins goes down</t>
+  </si>
+  <si>
+    <t>user sends a message to inform of the problem and David responds to the problem and adds the data</t>
+  </si>
+  <si>
+    <t>user sends a message to inform of the problem and David responds to the problem and returns the data to original state</t>
+  </si>
+  <si>
+    <t>user sends a message to inform of the problem and David responds to the problem and puts website back up</t>
+  </si>
+  <si>
+    <t>user sends a message to inform of the problem and David responds to the problem and adds the data correctly</t>
+  </si>
+  <si>
+    <t>assessing the impact and changing username and passwords as well as changing the position of the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using environment variables and setting secret text in Jenkins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take regular backups of the database </t>
+  </si>
+  <si>
+    <t>adding more multi-factor authentication</t>
+  </si>
+  <si>
+    <t>set up a backup Jenkins server with run code added</t>
   </si>
 </sst>
 </file>
@@ -258,10 +261,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,22 +588,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8FEFC7-D5F7-478D-AC6E-44EC4B1AC0DA}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="98.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="59.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -620,16 +630,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -646,16 +656,16 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -698,16 +708,16 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -724,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -750,21 +760,21 @@
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -776,21 +786,21 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -802,10 +812,10 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -814,15 +824,15 @@
         <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -834,10 +844,10 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -846,15 +856,15 @@
         <v>13</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -866,10 +876,10 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -877,10 +887,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -892,10 +902,10 @@
         <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -904,15 +914,15 @@
         <v>13</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>12</v>
@@ -924,27 +934,27 @@
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>12</v>
@@ -956,10 +966,10 @@
         <v>19</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -967,10 +977,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -982,22 +992,23 @@
         <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>